--- a/SG2042REVB/config.xlsx
+++ b/SG2042REVB/config.xlsx
@@ -8,6 +8,28 @@
     <sheet name="adc2ver" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2139,30 +2161,30 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>PG_DDR_VDD_0V8</v>
+        <v>EN_VDD_PCIE_H_1V8</v>
       </c>
       <c r="B10" t="str">
-        <v>PG_DDR_VDD_0V8</v>
+        <v>EN_VDD_PCIE_H_1V8</v>
       </c>
       <c r="C10" t="str">
-        <v>CHECK</v>
+        <v>ENABLE</v>
       </c>
       <c r="D10" t="str">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>EN_VDD_PCIE_H_1V8</v>
+        <v>PG_DDR_VDD_0V8</v>
       </c>
       <c r="B11" t="str">
-        <v>EN_VDD_PCIE_H_1V8</v>
+        <v>PG_DDR_VDD_0V8</v>
       </c>
       <c r="C11" t="str">
-        <v>ENABLE</v>
+        <v>CHECK</v>
       </c>
       <c r="D11" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">

--- a/SG2042REVB/config.xlsx
+++ b/SG2042REVB/config.xlsx
@@ -2058,7 +2058,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D2" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
@@ -2072,7 +2072,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D3" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
@@ -2086,7 +2086,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D4" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
@@ -2114,7 +2114,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D6" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7">
@@ -2170,7 +2170,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D10" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11">
@@ -2198,7 +2198,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D12" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13">
@@ -2212,7 +2212,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D13" t="str">
-        <v>1000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14">
@@ -2240,7 +2240,7 @@
         <v>ENABLE</v>
       </c>
       <c r="D15" t="str">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16">
